--- a/Health/Diseases in Singapore/DiseasesInSG.xlsx
+++ b/Health/Diseases in Singapore/DiseasesInSG.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\Diseases in Singapore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BCD9B53-7883-4B0C-9E49-305E6D3C7A4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB4ABF5-CB84-4127-8629-15855CAFFBFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiseasesInSG" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="23">
   <si>
     <t>Diseases In Singapore</t>
   </si>
@@ -66,12 +67,36 @@
   <si>
     <t>Leprosy</t>
   </si>
+  <si>
+    <t xml:space="preserve">Year </t>
+  </si>
+  <si>
+    <t>Number of Infected Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viral Hepatitis </t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legionellosis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand, Foot &amp; Mouth Disease </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculosis </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +230,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -388,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -503,6 +539,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -548,9 +617,27 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -905,14 +992,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1767,6 +1857,1731 @@
       </c>
       <c r="S15">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EEFD3D-82D9-4D83-9AE2-DF9B27426008}">
+  <dimension ref="A1:C155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C3" s="5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C4" s="5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C5" s="5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C10" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C11" s="5">
+        <v>29686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C17" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C18" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C19" s="5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C24" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C25" s="5">
+        <v>17278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C29" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C31" s="5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C32" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C33" s="5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C38" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C39" s="5">
+        <v>30878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C43" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C44" s="5">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C45" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C46" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C47" s="5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C51" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C52" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C53" s="5">
+        <v>20687</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C57" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C58" s="5">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C59" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C60" s="5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C61" s="5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C65" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C66" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C67" s="5">
+        <v>37125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C71" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C72" s="5">
+        <v>22170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C73" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C74" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C75" s="5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C79" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C80" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C81" s="5">
+        <v>31741</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C85" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C86" s="5">
+        <v>18326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C87" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C88" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C89" s="5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C93" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C94" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C95" s="5">
+        <v>22171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C99" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C100" s="5">
+        <v>11294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C101" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C102" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C103" s="5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C104" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C107" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C108" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C109" s="5">
+        <v>28216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C112" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C113" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C114" s="5">
+        <v>13085</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C115" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C116" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C117" s="5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C118" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C121" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C122" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C123" s="5">
+        <v>42154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C126" s="5">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C127" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C128" s="5">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C129" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C130" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C131" s="5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C132" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C134" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C135" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C136" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C137" s="5">
+        <v>33663</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C139" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C140" s="5">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C141" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C142" s="5">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C143" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C144" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C145" s="5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C146" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C148" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C149" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C150" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C151" s="5">
+        <v>40217</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C152" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C154" s="5">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C155" s="5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
